--- a/scalpel/typeinfer/evaluation/evaluation_outputs/beurtschipper__Depix.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/beurtschipper__Depix.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'float', 'any', 'int'}</t>
+          <t>{'any', 'int', 'float'}</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>84.48</v>
+        <v>31.82</v>
       </c>
       <c r="E58" t="inlineStr"/>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/beurtschipper__Depix.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/beurtschipper__Depix.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,12 +826,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'float', 'int'}</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'float', 'any', 'int'}</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2618,20 +2618,34 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr"/>
       <c r="B69" s="2" t="inlineStr"/>
-      <c r="C69" s="2" t="inlineStr"/>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr"/>
+      <c r="B70" s="2" t="inlineStr"/>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F70" s="2" t="n">
         <v>100</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/beurtschipper__Depix.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/beurtschipper__Depix.xlsx
@@ -826,7 +826,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>{'float', 'any', 'int'}</t>
+          <t>{'int', 'any', 'float'}</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>int</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
@@ -2624,16 +2624,16 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr"/>
       <c r="B69" s="2" t="inlineStr"/>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="F69" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr"/>
@@ -2642,7 +2642,7 @@
       <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
